--- a/论文写作/参考文献.xlsx
+++ b/论文写作/参考文献.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69BA318-95DA-4420-A9A6-B44D40836744}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BFFE44-C3CC-4609-8418-BAEA9AFA4EBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1914,6 +1914,32 @@
   </si>
   <si>
     <t>巴基斯坦农村住户调查数据（1986-1987，1990-1991）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信贷配给下的农业规模经济与土地生产率（张龙耀，2018）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 年黑、豫两省976 个农业规模经营主体样本数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正“U”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同规模农户售粮行为差异及影响因素分析（徐建玲，2018）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省320个农户的调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小农户（种粮面积
+10亩以下）、中等农户（种粮面积10亩～50亩）
+和大农户（种粮面积50亩以上）。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2393,11 +2419,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K30"/>
+  <dimension ref="B1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2866,6 +2892,28 @@
       </c>
       <c r="G30" s="3" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/论文写作/参考文献.xlsx
+++ b/论文写作/参考文献.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BFFE44-C3CC-4609-8418-BAEA9AFA4EBC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F473745-BA5E-4286-A253-A31E5BC49C7D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>文献名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -654,15 +654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陈海磊等（2014）
-农户土地流转是有效率的吗？——以山西为例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2004-2010山西农户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吉林省农户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -821,66 +812,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可能是因为本文是基于农户层 面的分析，并没有考虑地块层面的因素。由于客观数据的限制，笔者无法获得相应地块面积和土壤 质量等信息，而这些因素会显著影响到反转规律是否成立（Lamb，2003）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基准模型
 联立方程模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>劳动生产率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">首先 在 农村土地分配中需要考虑土地质量问题 在农户家庭人口 规模相同时 农户理应获得相同数量的耕 地 但在现实中 由于耕地质量参差不齐 分配土地时存在数量和质量之间的权衡 获得耕地数量 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>较少的农户 其耕地质量可能会更高 从而使得该农户的亩均产出和全要素生产率较高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 在此种情 况下 农户生产效率与其耕地规模将可能呈现反向关系 其次 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>土地经营规模较小的农户更可能精 耕细作 从而使得生产效率较高</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 李谷成等（2009）的研究证明 了这 点 他们发现 在中国 小农户相对于大农户在单位面积土地上投入更多的劳动 相反 大农户往往倾向于使用更多的农业机 械来替代劳动 土地利用强度较低 于是 小农户更容易形成 过密型 和 内卷型 农业 因此 在上述两种因素的共同作用下 农户生产效率与其土地经营规模呈反向关系 也就不足为奇了</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -958,41 +895,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>正向关系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（+）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在考虑土地细碎化的影响后，玉米、中晚籼稻规模报酬不变，春小麦、冬小麦和早籼稻存在规模 报酬递增，而粳稻则存在规模报酬递减，即当土地、资金、劳动力等生产要素都增加一倍时，产出的 增加小于一倍。粗略地说，小麦、水稻和玉米三种粮食作物总的规模报酬系数为1. 049。从总体上 来讲，我国粮食生产中几乎不存在显著的规模收益递增。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>负向关系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（-）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1187,10 +1090,6 @@
   </si>
   <si>
     <t>不同品种有增有减，粗略说，不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>而农业生产是一个人力劳动过程与生物自然生长过 程相互交织渗透的复杂过程，它对劳动集约化（精耕细作）的要求甚至重于资本集约化。一旦提高 农业的资本有机构成，以资本替代劳动，固然能够摊薄单位农产品的生产成本、增加农民总收入， 但也可能同时导致单位产品上的劳动投入不足，即一定程度的粗放经营，从而降低土地生产率。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1354,6 +1253,495 @@
   <si>
     <t>辛良杰等（2009）
 农户土地规模与生产率的关系及其解释的印证——以吉林省为例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨钢桥等（2011）
+农户耕地经营适度规模及其绩效研究——基于湖北6县市农户调查的实证分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“先升—后降—再升”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西省325户水稻种植农户，一个稻农多个地块、多个水稻种植季节、2011和2017年的投入产出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>农户层面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>全年亩均水稻产量与农户经营水稻田规模关系（面积的两种定义方式：全部水稻田面积和实际收获面积加总）。
+1.全部水稻田面积，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>复种指数是农户专业化的体现，因此系数为正</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+①</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正，但不显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（+）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>②系数增大，但仍不显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（+）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>③系数减小，仍不显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（+）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>④系数为负，但不显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（+）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.实际收获面积：回归结果与不考虑复种时类似。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">但复种指数系数变为负 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地块层面分季节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分析，地块面积与水稻单产的关系
+①正，显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（+*）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+②系数增大，显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（+*）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+③系数减小，显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（+*）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+④显著</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（+*）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+**保持其他变量不变的情况下，稻农总水田面积对水稻单产没有显著影响。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">地块层面全年
+1.地块上各季节水稻田面积
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>①四个模型设定均为正，且均在1%的水平上显著，且弹性基本不变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（+*）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**总水田面积对水稻单产没有显著影响。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrett，C. B.，M. F. Bellemare and J. Y. Hou，(2010)
+Reconsidering Conventional Explanations of the Inverse Produc⁃ tivity – Size Relationship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrett, C. B. (1996). On price risk and the inverse farm size–productivity relationship. Journal of Development Economics, 51(2), 193–215.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assuncßa˜o, J. J., &amp; Braido, L. H. B. (2007). Testing household-specific explanations for the inverse productivity relationship. American Journal of Agricultural Economics, 89(4), 980–990.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地市场的不完善和缺乏农业保险市场的条件下，小农户倾向于增加家庭劳动力，大农户倾向于减少雇佣劳动力以规避市场价格波动的风险，多重因素导致小农户产量高于大农户。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lamb, R. L. (2003). Inverse productivity: Land quality, labor markets, and measurement error. Journal of Development Economics, 71(1), 71–95.</t>
+  </si>
+  <si>
+    <t>测量误差导致负向关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农户调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USAID BASIS，马达加斯加两个中部高地市镇的17个村庄水稻种植户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>显著为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有一小部分的负向关系可以由市场的不完善解释，都不能由土壤质量变量遗漏来解释。能够解释大部分的解释负向关系的原因可能是测量误差和家庭内部分配效率地下（lamb）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Ayalew Ali Klaus Deininger（2014）
+Is There a Farm-Size Productivity
+Relationship in African Agriculture? Evidence from Rwanda
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢旺达300个随机选定的村庄，3600个农户家庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010/2011年农户调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RASMUS HELTBERG （1998）
+Rural Market Imperfections and the Farm SizeProductivity Relationship: Evidence from Pakistan </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农户调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴基斯坦农村住户调查数据（1986-1987，1990-1991）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信贷配给下的农业规模经济与土地生产率（张龙耀，2018）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 年黑、豫两省976 个农业规模经营主体样本数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正“U”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同规模农户售粮行为差异及影响因素分析（徐建玲，2018）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省320个农户的调查数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小农户（种粮面积
+10亩以下）、中等农户（种粮面积10亩～50亩）
+和大农户（种粮面积50亩以上）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正向关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（+）   产量</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1440,506 +1828,41 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+产值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土地规模更大的农户，更接近“理性经济人”假设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度农村家庭1975-1985年的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-D函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“-”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单位利润（使用市场工资率），负向关系基本上消失了
 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨钢桥等（2011）
-农户耕地经营适度规模及其绩效研究——基于湖北6县市农户调查的实证分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“先升—后降—再升”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江西省325户水稻种植农户，一个稻农多个地块、多个水稻种植季节、2011和2017年的投入产出数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>农户层面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>全年亩均水稻产量与农户经营水稻田规模关系（面积的两种定义方式：全部水稻田面积和实际收获面积加总）。
-1.全部水稻田面积，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>复种指数是农户专业化的体现，因此系数为正</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-①</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>正，但不显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（+）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>②系数增大，但仍不显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（+）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>③系数减小，仍不显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（+）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>④系数为负，但不显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（+）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2.实际收获面积：回归结果与不考虑复种时类似。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">但复种指数系数变为负 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>地块层面分季节</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分析，地块面积与水稻单产的关系
-①正，显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（+*）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-②系数增大，显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（+*）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-③系数减小，显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（+*）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-④显著</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（+*）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-**保持其他变量不变的情况下，稻农总水田面积对水稻单产没有显著影响。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">地块层面全年
-1.地块上各季节水稻田面积
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>①四个模型设定均为正，且均在1%的水平上显著，且弹性基本不变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（+*）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>**总水田面积对水稻单产没有显著影响。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrett，C. B.，M. F. Bellemare and J. Y. Hou，(2010)
-Reconsidering Conventional Explanations of the Inverse Produc⁃ tivity – Size Relationship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sen, A. K. (1962). An aspect of indian agriculture. Economic Weekly, 14, 243–266.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feder, G. (1985). The relation between farm size and farm productivity: The role of family labor, supervision and credit constraints. Journal of Development Economics, 18(2–3), 297–313.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barrett, C. B. (1996). On price risk and the inverse farm size–productivity relationship. Journal of Development Economics, 51(2), 193–215.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大农户更多的使用雇佣劳动力，有限的家庭劳动力无法完全监督雇佣农民的情况下，雇佣农民不会花费太多的精力提高生产力，因此较大农场的生产力倾向于低于小农户（道德风险）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劳动力市场存在剩余劳动力，且小农户与大农户（资本主义农场）之间存在工资差距，由于小农户实际劳动力成本低于资本主义农场的劳动力成本时，小农场将比大农场更具有生产力（劳动力市场不完善）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assuncßa˜o, J. J., &amp; Braido, L. H. B. (2007). Testing household-specific explanations for the inverse productivity relationship. American Journal of Agricultural Economics, 89(4), 980–990.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土地市场的不完善和缺乏农业保险市场的条件下，小农户倾向于增加家庭劳动力，大农户倾向于减少雇佣劳动力以规避市场价格波动的风险，多重因素导致小农户产量高于大农户。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Benjamin, D. (1995). Can unobserved land quality explain the inverse productivity relationship?. Journal of Development Economics, 46(1), 51–84.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lamb, R. L. (2003). Inverse productivity: Land quality, labor markets, and measurement error. Journal of Development Economics, 71(1), 71–95.</t>
-  </si>
-  <si>
-    <t>测量误差导致负向关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农户调查数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USAID BASIS，马达加斯加两个中部高地市镇的17个村庄水稻种植户数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>显著为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>“-”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有一小部分的负向关系可以由市场的不完善解释，都不能由土壤质量变量遗漏来解释。能够解释大部分的解释负向关系的原因可能是测量误差和家庭内部分配效率地下（lamb）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Ayalew Ali Klaus Deininger（2014）
-Is There a Farm-Size Productivity
-Relationship in African Agriculture? Evidence from Rwanda
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">单位利润（使用市场工资率），负向关系基本上消失了
-虽然一套解释的重点是未观察到的土地质量差异, 但另一套解释侧重于劳动力市场的缺陷, 这些缺陷使小生产者要么比较大的生产者付出更多的努力, 要么比家庭劳动力的最佳数量付出更多。信贷市场的缺陷和低于一定规模的地块大小对机械化施加的限制可能会与此相抵消, 从而为大型生产商提供优势, 随着获得机械化的机会变得更加重要, 这可能会削弱这种关系, 特别是在劳动力市场运作得到改善。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢旺达300个随机选定的村庄，3600个农户家庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2010/2011年农户调查数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RASMUS HELTBERG （1998）
-Rural Market Imperfections and the Farm SizeProductivity Relationship: Evidence from Pakistan </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农户调查数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴基斯坦农村住户调查数据（1986-1987，1990-1991）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信贷配给下的农业规模经济与土地生产率（张龙耀，2018）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015 年黑、豫两省976 个农业规模经营主体样本数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正“U”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同规模农户售粮行为差异及影响因素分析（徐建玲，2018）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安徽省320个农户的调查数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小农户（种粮面积
-10亩以下）、中等农户（种粮面积10亩～50亩）
-和大农户（种粮面积50亩以上）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然一套解释的重点是未观察到的土地质量差异, 但另一套解释侧重于劳动力市场的缺陷, 这些缺陷使小生产者要么比较大的生产者付出更多的努力, 要么比家庭劳动力的最佳数量付出更多。信贷市场的缺陷和低于一定规模的地块大小对机械化施加的限制可能会与此相抵消, 从而为大型生产商提供优势, 随着获得机械化的机会变得更加重要, 这可能会削弱这种关系, 特别是在劳动力市场运作得到改善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能是因为本文是基于农户层面的分析，并没有考虑地块层面的因素。由于客观数据的限制，笔者无法获得相应地块面积和土壤 质量等信息，而这些因素会显著影响到反转规律是否成立（Lamb，2003）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2020,12 +1943,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2058,18 +1993,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2079,6 +2005,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2419,501 +2360,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K32"/>
+  <dimension ref="B1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="150" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="76.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="60" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="60" style="3" customWidth="1"/>
-    <col min="9" max="9" width="43.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.875" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="76.25" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="60" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60" style="1" customWidth="1"/>
+    <col min="9" max="9" width="43.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:11" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:11" s="8" customFormat="1" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:11" ht="54" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="229.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="5" spans="2:11" s="5" customFormat="1" ht="229.5" x14ac:dyDescent="0.15">
+      <c r="B5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:11" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="7" spans="2:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
+    <row r="9" spans="2:11" s="7" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="5" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="7" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
+      <c r="G12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>41</v>
+    <row r="13" spans="2:11" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="135" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="54" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>12</v>
+    <row r="14" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>75</v>
+    <row r="16" spans="2:11" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>22</v>
+    <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>73</v>
+    <row r="18" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>84</v>
-      </c>
+    <row r="19" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>53</v>
+    <row r="21" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>113</v>
+    <row r="22" spans="2:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>117</v>
+    <row r="23" spans="2:9" ht="54" x14ac:dyDescent="0.15">
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>122</v>
+    <row r="24" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>105</v>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>104</v>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>107</v>
+      <c r="B27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>128</v>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
